--- a/Prep/Prep_Strategy.xlsx
+++ b/Prep/Prep_Strategy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/D16F7640899B48F6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn_new\LearnNew\Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{673E1DDE-431A-468B-B2AF-4F49F00C6592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F462AA86-AFBB-4DE6-AF3B-6306357F059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{8CDA74BD-3C29-4744-9405-A625A2E98285}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8CDA74BD-3C29-4744-9405-A625A2E98285}"/>
   </bookViews>
   <sheets>
     <sheet name="Programming Languages" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>Topics</t>
   </si>
@@ -203,18 +203,12 @@
     <t>File Handling</t>
   </si>
   <si>
-    <t>Python Database Tutorial - GeeksforGeeks</t>
-  </si>
-  <si>
     <t>Fundamentals</t>
   </si>
   <si>
     <t>C++ DSA - Data Structure and Algorithm in C++ - GeeksforGeeks</t>
   </si>
   <si>
-    <t>DSA</t>
-  </si>
-  <si>
     <t>Time and space complexity</t>
   </si>
   <si>
@@ -239,15 +233,9 @@
     <t>topic</t>
   </si>
   <si>
-    <t>Learn CMake in Y Minutes</t>
-  </si>
-  <si>
     <t>Cmake</t>
   </si>
   <si>
-    <t>Learn Git in Y Minutes</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -272,9 +260,6 @@
     <t>Yolo V8</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/machine-learning/object-detection-using-yolov8/</t>
-  </si>
-  <si>
     <t>Kalman Filter - VISUALLY EXPLAINED!</t>
   </si>
   <si>
@@ -291,6 +276,99 @@
   </si>
   <si>
     <t>Extended KF</t>
+  </si>
+  <si>
+    <t>What is CI/CD Pipeline? | Simply Explained by Shradha Ma'am</t>
+  </si>
+  <si>
+    <t>Google C++ Testing, GTest, GMock Framework Part- 1 : Introduction</t>
+  </si>
+  <si>
+    <t>Gtest/Gmock</t>
+  </si>
+  <si>
+    <t>Linux SHELL SCRIPTING in ONE VIDEO For Beginners 2025 [ENGLISH] | MPrashant</t>
+  </si>
+  <si>
+    <t>Linux shell scripting</t>
+  </si>
+  <si>
+    <t>Self-driving cars need your help</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python/introduction-to-python/</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>1day</t>
+  </si>
+  <si>
+    <t>2.5hrs</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>DSA- Array</t>
+  </si>
+  <si>
+    <t>DSA- Linked List(Singly doubly, circular)</t>
+  </si>
+  <si>
+    <t>DSA- Stack</t>
+  </si>
+  <si>
+    <t>DSA- Queue</t>
+  </si>
+  <si>
+    <t>DSA-graph</t>
+  </si>
+  <si>
+    <t>DSA-Tree</t>
+  </si>
+  <si>
+    <t>3, 3, 5</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>1hrs</t>
+  </si>
+  <si>
+    <t>Bazel</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>3.5hrs</t>
+  </si>
+  <si>
+    <t>Learn CMake in Y Minutes
+https://www.youtube.com/watch?v=NGPo7mz1oa4</t>
+  </si>
+  <si>
+    <t>Learn Git in Y Minutes
+https://www.youtube.com/watch?v=Ez8F0nW6S-w</t>
+  </si>
+  <si>
+    <t>Online Tutorials - 01 - CarMaker Introduction</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/machine-learning/object-detection-using-yolov8/
+https://www.youtube.com/watch?v=LNwODJXcvt4</t>
   </si>
 </sst>
 </file>
@@ -329,12 +407,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,12 +446,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C840A50B-3662-4DF8-91FE-9D757F24B1DB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +787,7 @@
     <col min="3" max="3" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -698,7 +801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45985</v>
       </c>
@@ -706,7 +809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45986</v>
       </c>
@@ -714,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45987</v>
       </c>
@@ -722,185 +825,351 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="5">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="5">
+        <v>45997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="5">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="5">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5">
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="5">
+        <v>46004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="5">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="5">
+        <v>46004</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +1188,7 @@
     <hyperlink ref="B29" r:id="rId12" display="https://www.geeksforgeeks.org/python/python-oops-concepts/" xr:uid="{CBACA91B-F3B8-4E85-A008-4C22BE26C30E}"/>
     <hyperlink ref="B30" r:id="rId13" display="https://www.geeksforgeeks.org/python/python-exception-handling/" xr:uid="{4630541B-5574-4128-A851-737E375B9E03}"/>
     <hyperlink ref="B31" r:id="rId14" display="https://www.geeksforgeeks.org/python/file-handling-python/" xr:uid="{71EEE4CD-4ED6-4A50-932F-690122904BC8}"/>
-    <hyperlink ref="B24" r:id="rId15" display="https://www.geeksforgeeks.org/python/python-database-tutorial/" xr:uid="{5BF7CD2A-AA9A-4C9D-8CA0-4B0794869CD1}"/>
+    <hyperlink ref="B24" r:id="rId15" xr:uid="{5BF7CD2A-AA9A-4C9D-8CA0-4B0794869CD1}"/>
     <hyperlink ref="B36" r:id="rId16" display="https://www.geeksforgeeks.org/cpp/learn-dsa-in-cpp/" xr:uid="{B73924DF-1A33-4A08-A113-731D45B85CBB}"/>
     <hyperlink ref="B17" r:id="rId17" display="https://www.geeksforgeeks.org/cpp/rule-of-three-in-cpp/" xr:uid="{19DBC928-96FD-4393-A371-C8B563CEEBCA}"/>
     <hyperlink ref="B18" r:id="rId18" display="https://www.geeksforgeeks.org/cpp/rule-of-five-in-cpp/" xr:uid="{99195DF9-95A6-49F3-9D8E-1EAA30575B88}"/>
@@ -930,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C072E9-160B-42B6-BC43-31AF1B5B4409}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,82 +1215,113 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
+      <c r="C3" t="s">
+        <v>101</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1031,17 +1331,87 @@
       <c r="B10" t="s">
         <v>84</v>
       </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://learnxinyminutes.com/cmake/" xr:uid="{577D8910-A208-4F78-B53F-38BB5E64E302}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://learnxinyminutes.com/git/" xr:uid="{8E05DB02-F66F-4FF1-B79E-7DAC2B80182A}"/>
-    <hyperlink ref="H2" r:id="rId3" display="https://learnxinyminutes.com/opencv/" xr:uid="{3E05208E-31CA-4E35-B404-5CFEF7D79D5B}"/>
-    <hyperlink ref="H3" r:id="rId4" display="https://www.opencv-srf.com/p/introduction.html" xr:uid="{5A8C6AD1-A279-4CE2-A7B0-FF514FD16D7C}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{834F9346-402E-4273-87AF-0DBCD708AC45}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://www.youtube.com/watch?v=-DiZGpAh7T4&amp;t=331s" xr:uid="{0F4F3CFD-34F2-498A-95C8-57EF2BA59E0A}"/>
-    <hyperlink ref="H4" r:id="rId7" display="https://www.youtube.com/watch?v=6LOsCEs9IAc&amp;list=PLivJwLo9VCUJXdO8SiOjZTWr_fXrAy4OQ" xr:uid="{90336BC3-3849-4AB2-8B97-EDF227892376}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.youtube.com/watch?v=9X3jGGnbcvU" xr:uid="{1BB5A022-933C-44EC-8A29-D6BA4979FEBF}"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://learnxinyminutes.com/opencv/" xr:uid="{3E05208E-31CA-4E35-B404-5CFEF7D79D5B}"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://www.opencv-srf.com/p/introduction.html" xr:uid="{5A8C6AD1-A279-4CE2-A7B0-FF514FD16D7C}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://www.geeksforgeeks.org/machine-learning/object-detection-using-yolov8/" xr:uid="{834F9346-402E-4273-87AF-0DBCD708AC45}"/>
+    <hyperlink ref="A36" r:id="rId5" display="https://www.youtube.com/watch?v=-DiZGpAh7T4&amp;t=331s" xr:uid="{0F4F3CFD-34F2-498A-95C8-57EF2BA59E0A}"/>
+    <hyperlink ref="H4" r:id="rId6" display="https://www.youtube.com/watch?v=6LOsCEs9IAc&amp;list=PLivJwLo9VCUJXdO8SiOjZTWr_fXrAy4OQ" xr:uid="{90336BC3-3849-4AB2-8B97-EDF227892376}"/>
+    <hyperlink ref="A37" r:id="rId7" display="https://www.youtube.com/watch?v=9X3jGGnbcvU" xr:uid="{1BB5A022-933C-44EC-8A29-D6BA4979FEBF}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.youtube.com/watch?v=nbFXI9SDfbk&amp;list=PL_dsdStdDXbo-zApdWB5XiF2aWpsqzV55&amp;index=1" xr:uid="{65E42731-DE08-4E69-828F-027D28087BBE}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.youtube.com/watch?v=FL7K2A2KH7g&amp;t=3538s" xr:uid="{EF4EC4F4-EC50-4944-84C7-95A45FE1DA3A}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.youtube.com/watch?v=FwCiSRG0mp4&amp;list=PL3lTgNaX8q9o451vRwjeKrRDI76yb8WLT" xr:uid="{F8B91447-1058-41E6-9F6A-5E082263B5A8}"/>
+    <hyperlink ref="A8" r:id="rId11" display="https://www.youtube.com/watch?v=gLptmcuCx6Q&amp;t=359s" xr:uid="{FE857A06-52FB-4535-B7EC-884B58FC1338}"/>
+    <hyperlink ref="A3" r:id="rId12" display="https://learnxinyminutes.com/git/" xr:uid="{8E05DB02-F66F-4FF1-B79E-7DAC2B80182A}"/>
+    <hyperlink ref="A12" r:id="rId13" display="https://www.youtube.com/watch?v=SAvlih6oCWk&amp;list=PLe3iwCihua62lT0d92zx1hlyn3t9S7qMW&amp;index=1" xr:uid="{1CD138EE-3A57-4CC1-BD03-3B0D265DA095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1052,7 +1422,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1512,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>

--- a/Prep/Prep_Strategy.xlsx
+++ b/Prep/Prep_Strategy.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn_new\LearnNew\Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F462AA86-AFBB-4DE6-AF3B-6306357F059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB607C48-E7DF-40FA-B3DF-1F5020776D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8CDA74BD-3C29-4744-9405-A625A2E98285}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{8CDA74BD-3C29-4744-9405-A625A2E98285}"/>
   </bookViews>
   <sheets>
     <sheet name="Programming Languages" sheetId="3" r:id="rId1"/>
     <sheet name="project" sheetId="4" r:id="rId2"/>
     <sheet name="Skill Set" sheetId="2" r:id="rId3"/>
+    <sheet name="imp_concepts" sheetId="5" r:id="rId4"/>
+    <sheet name="companies" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>Topics</t>
   </si>
@@ -258,9 +260,6 @@
   </si>
   <si>
     <t>Yolo V8</t>
-  </si>
-  <si>
-    <t>Kalman Filter - VISUALLY EXPLAINED!</t>
   </si>
   <si>
     <t>Kalman Filtering- Linear</t>
@@ -367,8 +366,75 @@
     <t>Online Tutorials - 01 - CarMaker Introduction</t>
   </si>
   <si>
+    <t>Kalman Filter - VISUALLY EXPLAINED!
+https://www.youtube.com/watch?v=bm3cwEP2nUo&amp;t=2s</t>
+  </si>
+  <si>
+    <t>Kalman Filter &amp; EKF (Cyrill Stachniss)</t>
+  </si>
+  <si>
+    <t>LKF &amp; EKF</t>
+  </si>
+  <si>
     <t>https://www.geeksforgeeks.org/machine-learning/object-detection-using-yolov8/
 https://www.youtube.com/watch?v=LNwODJXcvt4</t>
+  </si>
+  <si>
+    <t>Storage classes</t>
+  </si>
+  <si>
+    <t>Storage Classes in C++ with Examples - GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>Denso</t>
+  </si>
+  <si>
+    <t>Magna</t>
+  </si>
+  <si>
+    <t>Mobileye</t>
+  </si>
+  <si>
+    <t>Aptive</t>
+  </si>
+  <si>
+    <t>Valeo</t>
+  </si>
+  <si>
+    <t>Hyundai  Mobis</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>Harman</t>
+  </si>
+  <si>
+    <t>Embitel</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Python Automation testing</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Sensor Fusion</t>
+  </si>
+  <si>
+    <t>Perception</t>
   </si>
 </sst>
 </file>
@@ -776,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C840A50B-3662-4DF8-91FE-9D757F24B1DB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +920,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5">
         <v>45989</v>
@@ -868,7 +934,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="5">
         <v>45990</v>
@@ -882,7 +948,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5">
         <v>45992</v>
@@ -896,7 +962,7 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5">
         <v>45993</v>
@@ -910,7 +976,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5">
         <v>45994</v>
@@ -924,7 +990,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="5">
         <v>45995</v>
@@ -938,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="5">
         <v>45994</v>
@@ -952,7 +1018,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5">
         <v>45994</v>
@@ -964,7 +1030,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="5">
         <v>45994</v>
@@ -978,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -988,13 +1054,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="5">
         <v>45989</v>
@@ -1008,7 +1074,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5">
         <v>45990</v>
@@ -1022,7 +1088,7 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="5">
         <v>45996</v>
@@ -1036,7 +1102,7 @@
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="5">
         <v>45997</v>
@@ -1050,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="5">
         <v>45999</v>
@@ -1064,7 +1130,7 @@
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="5">
         <v>46000</v>
@@ -1078,7 +1144,7 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5">
         <v>46001</v>
@@ -1092,7 +1158,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="5">
         <v>46001</v>
@@ -1108,10 +1174,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="5">
         <v>45990</v>
@@ -1119,10 +1185,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="5">
         <v>46002</v>
@@ -1130,10 +1196,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="5">
         <v>46003</v>
@@ -1141,10 +1207,10 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="5">
         <v>46004</v>
@@ -1152,10 +1218,10 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="5">
         <v>46003</v>
@@ -1163,10 +1229,10 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5">
         <v>46004</v>
@@ -1199,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C072E9-160B-42B6-BC43-31AF1B5B4409}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,13 +1295,13 @@
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>70</v>
@@ -1246,13 +1312,13 @@
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>72</v>
@@ -1266,13 +1332,13 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
         <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1288,82 +1354,82 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1372,29 +1438,37 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1412,6 +1486,7 @@
     <hyperlink ref="A8" r:id="rId11" display="https://www.youtube.com/watch?v=gLptmcuCx6Q&amp;t=359s" xr:uid="{FE857A06-52FB-4535-B7EC-884B58FC1338}"/>
     <hyperlink ref="A3" r:id="rId12" display="https://learnxinyminutes.com/git/" xr:uid="{8E05DB02-F66F-4FF1-B79E-7DAC2B80182A}"/>
     <hyperlink ref="A12" r:id="rId13" display="https://www.youtube.com/watch?v=SAvlih6oCWk&amp;list=PLe3iwCihua62lT0d92zx1hlyn3t9S7qMW&amp;index=1" xr:uid="{1CD138EE-3A57-4CC1-BD03-3B0D265DA095}"/>
+    <hyperlink ref="A38" r:id="rId14" display="https://www.youtube.com/watch?v=E-6paM_Iwfc&amp;t=3321s" xr:uid="{18A8CD3A-730E-47ED-8C46-B46A49C019EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1521,4 +1596,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB13535-29AA-4ADF-B6F0-C238BB260C96}">
+  <dimension ref="C3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.geeksforgeeks.org/cpp/storage-classes-in-c-with-examples/" xr:uid="{3733D832-E248-46B6-B26E-0750BBAD1BD9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE1D508-E393-4514-A882-938971FD5779}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>